--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artemsolovev/Ilsur_bot/master_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F3532-BBB8-D54A-9150-F8E14083D7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE62B0-251D-EB4D-8C0F-2F22C4377040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{D484EAC3-01C5-5F4E-BF0F-F5C3903A9437}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{D484EAC3-01C5-5F4E-BF0F-F5C3903A9437}"/>
   </bookViews>
   <sheets>
     <sheet name="apple" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">apple!$A$1:$G$40</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">apple!$A$1:$BB$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="497">
   <si>
     <t>Замена стекла: 600р</t>
   </si>
@@ -325,6 +319,9 @@
     <t>Под ключ : 4500р</t>
   </si>
   <si>
+    <t xml:space="preserve">iPhone 8 plus </t>
+  </si>
+  <si>
     <t>Замена стекла: 1200р</t>
   </si>
   <si>
@@ -691,645 +688,699 @@
     <t>Apple iPad Pro 10.5 2017 (A1701 A1709) замена стекла под ключ  5000р</t>
   </si>
   <si>
+    <t>iPhone 5</t>
+  </si>
+  <si>
+    <t>Google Аккаунт андроид 5/6/7/8   - 300р</t>
+  </si>
+  <si>
+    <t>Google Аккаунт андроид  9/10 - 500р</t>
+  </si>
+  <si>
+    <t>Снятие модуля 500р</t>
+  </si>
+  <si>
+    <t>Замена разъема micro под ключ  500-800р</t>
+  </si>
+  <si>
+    <t>Замена разъема type-c под ключ  800-1200р</t>
+  </si>
+  <si>
+    <t>Замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>Замена стекла   900р</t>
+  </si>
+  <si>
+    <t>Google Аккаунт андроид  11 - 800</t>
+  </si>
+  <si>
+    <t>SAMSUNG A5</t>
+  </si>
+  <si>
+    <t>Замена стекла   под ключ  1400р</t>
+  </si>
+  <si>
+    <t>Замена разъема micro под ключ  500 - 800р</t>
+  </si>
+  <si>
+    <t>Замена разъема type-c под ключ  800 - 1200р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG A3 2016 A310f </t>
+  </si>
+  <si>
+    <t>Замена стекла под ключ      1400р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG A3 2017 A320f  </t>
+  </si>
+  <si>
+    <t>Замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>Замена стекла  под ключ 1500р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG A5 2015 A500f </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG A5 2016 A510f </t>
+  </si>
+  <si>
+    <t>Замена стекла под ключ    1500р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG A5 2017 A520f </t>
+  </si>
+  <si>
+    <t>Замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>Замена стекла   1600р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG A6 2018 A600f </t>
+  </si>
+  <si>
+    <t>Замена стекла под ключ    1300р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG A6 Plus 2018 A605f </t>
+  </si>
+  <si>
+    <t>Замена стекла под ключ    1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A6</t>
+  </si>
+  <si>
     <t>SAMSUNG A3</t>
   </si>
   <si>
-    <t>SAMSUNG A5</t>
-  </si>
-  <si>
-    <t>SAMSUNG A6</t>
+    <t xml:space="preserve">SAMSUNG A3 2015 A300f </t>
+  </si>
+  <si>
+    <t>Замена стекла   под ключ      1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A7 2016 A710f замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A7 2017 A720f  замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A7 2018 A750f замена стекла   1200р</t>
   </si>
   <si>
     <t>SAMSUNG A7</t>
   </si>
   <si>
+    <t>SAMSUNG A7 2017 A720f  замена стекла  под ключ - 1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A7 2016 A710f замена стекла  под ключ-  1600р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A7 2018 A750f замена стекла   под ключ - 1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A8 2018 A530f замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A8 Plus A730f  замена стекла   1200р</t>
+  </si>
+  <si>
     <t>SAMSUNG A8</t>
   </si>
   <si>
+    <t>SAMSUNG A8 Plus A730f  замена стекла   под ключ - 1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A8 2018 A530f замена стекла  под ключ - 1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A9 2018 A920f замена стекла   1200р</t>
+  </si>
+  <si>
     <t>SAMSUNG A9</t>
   </si>
   <si>
+    <t>SAMSUNG A9 2018 A920f замена стекла   под ключ - 1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A10 2019 A105f, M10 2019 M105f  замена стекла под ключ - 1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A10 2019 A105f, M10 2019 M105f  замена стекла - 1100р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A10s 2019 A107f 2019  замена стекла под ключ - 1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A10s 2019 A107f 2019  замена стекла - 1100р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A10s</t>
+  </si>
+  <si>
     <t>SAMSUNG A10, SAMSUNG  M10</t>
   </si>
   <si>
-    <t>SAMSUNG A10s</t>
+    <t>SAMSUNG A20 2019 A205f, A30s 2019 A307f, M10s 2019 M107f замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A20 2019 A205f, A30s 2019 A307f, M10s 2019 M107f замена стекла   под ключ - 1500р</t>
   </si>
   <si>
     <t>SAMSUNG A20, SAMSUNG A30s, SAMSUNG M10s</t>
   </si>
   <si>
+    <t>SAMSUNG A20s 2019 A207f/DS замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A20s 2019 A207f/DS замена стекла   под ключ    1500р</t>
+  </si>
+  <si>
     <t>SAMSUNG A20s</t>
   </si>
   <si>
+    <t>SAMSUNG A21s A217f  замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A21s A217f  замена стекла  под ключ      1500р</t>
+  </si>
+  <si>
     <t>SAMSUNG A21s</t>
   </si>
   <si>
+    <t>SAMSUNG A30 2019 A305f, A50 A505f, A50s A507 M30 2019 замена стекла   1300р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A30 2019 A305f, A50 A505f, A50s A507 M30 2019 замена стекла под ключ - 1800р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A31 2020 A315f замена стекла   1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A31 2020 A315f замена стекла  под ключ - 2000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A31</t>
+  </si>
+  <si>
+    <t>SAMSUNG A40 2019 A405f замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A40 2019 A405f замена стекла  под ключ 1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A40s 2019 A3050 замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A40s 2019 A3050 замена стекла   под ключ 1700р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A40</t>
+  </si>
+  <si>
+    <t>SAMSUNG A41 A415f замена стекла   1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A41 A415f замена стекла  под ключ   2000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A41</t>
+  </si>
+  <si>
+    <t>SAMSUNG A51 A515f замена стекла   1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A51 A515f замена стекла  под ключ    2000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A51</t>
+  </si>
+  <si>
     <t>SAMSUNG A30, SAMSUNG A50, SAMSUNG A50s, SAMSUNG A50s, SAMSUNG M30</t>
   </si>
   <si>
-    <t>SAMSUNG A31</t>
-  </si>
-  <si>
-    <t>SAMSUNG A40</t>
-  </si>
-  <si>
-    <t>SAMSUNG A41</t>
-  </si>
-  <si>
-    <t>SAMSUNG A51</t>
+    <t>SAMSUNG A70 2019 A705f, A70s A707 замена стекла   1400р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A70 2019 A705f, A70s A707 замена стекла  под ключ  1900р</t>
   </si>
   <si>
     <t>SAMSUNG A70</t>
   </si>
   <si>
+    <t>SAMSUNG A71 A715f, Note 10 Lite N770f, S10 Lite G770f  замена стекла   2800р</t>
+  </si>
+  <si>
     <t>SAMSUNG A71,SAMSUNG  Note 10 Lite, SAMSUNG S10 Lite</t>
   </si>
   <si>
+    <t>SAMSUNG A71 A715f, Note 10 Lite N770f, S10 Lite G770f  замена стекла под ключ - 3300р</t>
+  </si>
+  <si>
+    <t>SAMSUNG A80 2019 A805f замена стекла   1500р</t>
+  </si>
+  <si>
     <t>SAMSUNG A80</t>
   </si>
   <si>
+    <t>SAMSUNG A80 2019 A805f замена стекла   под ключ - 2000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J2 2018 J250f замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J2 Core 2018 J260f  замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J2 Core 2018 J260f  замена стекла   под ключ - 1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J2 2018 J250f замена стекла   под ключ - 1500р</t>
+  </si>
+  <si>
     <t>SAMSUNG J2</t>
   </si>
   <si>
+    <t>SAMSUNG J3 2016 J320f замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J3 2017 J330f замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J3 2016 J320f замена стекла  под ключ  -  1300р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J3 2017 J330f замена стекла   под ключ   - 1300р</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG J3 </t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG J4 ,SAMSUNG J4 Plus, SAMSUNG J6 Plus </t>
+    <t>SAMSUNG J4 2018 J400f  замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J4 2018 J400f  замена стекла   под ключ      1300р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J4 Plus 2018 J415f, J6 Plus 2018 J610f замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J4 Plus 2018 J415f, J6 Plus 2018 J610f замена стекла   под ключ - 1300р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J5 2017 J530f  замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J5 2017 J530f  замена стекла  под ключ 1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J5 J510f  замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J5 J510f  замена стекла   под ключ 1300р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J5 Prime G570f замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J5 Prime G570f замена стекла   под ключ 1300р</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG J5 </t>
   </si>
   <si>
-    <t>SAMSUNG J6</t>
+    <t>SAMSUNG J6 2018 J600f замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J6 2018 J600f замена стекла   под ключ 1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J7 2017 J730f  замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J7 J710f  замена стекла   1000р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J7 Neo J701f замена стекла   1100р</t>
   </si>
   <si>
     <t>SAMSUNG J7</t>
   </si>
   <si>
+    <t>SAMSUNG J7 Neo J701f замена стекла   под ключ - 1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J7 J710f  замена стекла   под ключ  -  1500р</t>
+  </si>
+  <si>
+    <t>SAMSUNG J7 2017 J730f  замена стекла под ключ -  1500р</t>
+  </si>
+  <si>
+    <t>Google Аккаунт андроид  11 – 800р</t>
+  </si>
+  <si>
     <t>SAMSUNG J8</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG A3 2015 A300f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG A5 2015 A500f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG A6 2018 A600f </t>
-  </si>
-  <si>
-    <t>SAMSUNG A7 2016 A710f замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A8 2018 A530f замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A9 2018 A920f замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A10 2019 A105f, M10 2019 M105f  замена стекла - 1100р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A10s 2019 A107f 2019  замена стекла - 1100р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A20 2019 A205f, A30s 2019 A307f, M10s 2019 M107f замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A20s 2019 A207f/DS замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A21s A217f  замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A30 2019 A305f, A50 A505f, A50s A507 M30 2019 замена стекла   1300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A31 2020 A315f замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A40 2019 A405f замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A41 A415f замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A51 A515f замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A70 2019 A705f, A70s A707 замена стекла   1400р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A71 A715f, Note 10 Lite N770f, S10 Lite G770f  замена стекла   2800р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A80 2019 A805f замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J2 2018 J250f замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J3 2016 J320f замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J4 2018 J400f  замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J5 2017 J530f  замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J6 2018 J600f замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J7 2017 J730f  замена стекла   1100р</t>
+    <t>SAMSUNG J8 J810f замена стекла  под ключ - 1500р</t>
   </si>
   <si>
     <t>SAMSUNG J8 J810f замена стекла  - 1200р</t>
   </si>
   <si>
-    <t>Замена стекла   900р</t>
-  </si>
-  <si>
-    <t>Замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A7 2016 A710f замена стекла  под ключ-  1600р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A8 2018 A530f замена стекла  под ключ - 1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A9 2018 A920f замена стекла   под ключ - 1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A10 2019 A105f, M10 2019 M105f  замена стекла под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A10s 2019 A107f 2019  замена стекла под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A20 2019 A205f, A30s 2019 A307f, M10s 2019 M107f замена стекла   под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A20s 2019 A207f/DS замена стекла   под ключ    1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A21s A217f  замена стекла  под ключ      1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A30 2019 A305f, A50 A505f, A50s A507 M30 2019 замена стекла под ключ - 1800р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A31 2020 A315f замена стекла  под ключ - 2000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A40 2019 A405f замена стекла  под ключ 1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A41 A415f замена стекла  под ключ   2000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A51 A515f замена стекла  под ключ    2000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A70 2019 A705f, A70s A707 замена стекла  под ключ  1900р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A71 A715f, Note 10 Lite N770f, S10 Lite G770f  замена стекла под ключ - 3300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A80 2019 A805f замена стекла   под ключ - 2000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J2 2018 J250f замена стекла   под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J3 2016 J320f замена стекла  под ключ  -  1300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J4 2018 J400f  замена стекла   под ключ      1300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J5 2017 J530f  замена стекла  под ключ 1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J6 2018 J600f замена стекла   под ключ 1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J7 2017 J730f  замена стекла под ключ -  1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J8 J810f замена стекла  под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>Замена стекла   под ключ      1200р</t>
-  </si>
-  <si>
-    <t>Замена стекла   под ключ  1400р</t>
-  </si>
-  <si>
-    <t>Замена стекла под ключ    1300р</t>
-  </si>
-  <si>
-    <t>Google Аккаунт андроид 5/6/7/8   - 300р</t>
-  </si>
-  <si>
-    <t>Google Аккаунт андроид  9/10 - 500р</t>
-  </si>
-  <si>
-    <t>Google Аккаунт андроид  11 - 800</t>
-  </si>
-  <si>
-    <t>Google Аккаунт андроид  11 – 800р</t>
-  </si>
-  <si>
-    <t>Снятие модуля 500р</t>
-  </si>
-  <si>
-    <t>Замена разъема micro под ключ  500 - 800р</t>
-  </si>
-  <si>
-    <t>Замена разъема micro под ключ  500-800р</t>
-  </si>
-  <si>
-    <t>Замена разъема type-c под ключ  800 - 1200р</t>
-  </si>
-  <si>
-    <t>Замена разъема type-c под ключ  800-1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A7 2017 A720f  замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A8 Plus A730f  замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A40s 2019 A3050 замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J2 Core 2018 J260f  замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J3 2017 J330f замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J4 Plus 2018 J415f, J6 Plus 2018 J610f замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J5 J510f  замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J7 J710f  замена стекла   1000р</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG A3 2016 A310f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG A5 2016 A510f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG A6 Plus 2018 A605f </t>
-  </si>
-  <si>
-    <t>SAMSUNG A7 2017 A720f  замена стекла  под ключ - 1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A8 Plus A730f  замена стекла   под ключ - 1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A40s 2019 A3050 замена стекла   под ключ 1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J2 Core 2018 J260f  замена стекла   под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J3 2017 J330f замена стекла   под ключ   - 1300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J4 Plus 2018 J415f, J6 Plus 2018 J610f замена стекла   под ключ - 1300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J5 J510f  замена стекла   под ключ 1300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J7 J710f  замена стекла   под ключ  -  1500р</t>
-  </si>
-  <si>
-    <t>Замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>Замена стекла под ключ      1400р</t>
-  </si>
-  <si>
-    <t>Замена стекла под ключ    1500р</t>
-  </si>
-  <si>
-    <t>Замена стекла под ключ    1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A7 2018 A750f замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J5 Prime G570f замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J7 Neo J701f замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>SAMSUNG A7 2018 A750f замена стекла   под ключ - 1700р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J5 Prime G570f замена стекла   под ключ 1300р</t>
-  </si>
-  <si>
-    <t>SAMSUNG J7 Neo J701f замена стекла   под ключ - 1500р</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG A3 2017 A320f  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG A5 2017 A520f </t>
-  </si>
-  <si>
-    <t>Замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Замена стекла  под ключ 1500р</t>
-  </si>
-  <si>
-    <t>Замена стекла   1600р</t>
+    <t>Замена разъема type-c под ключ  800 - 1000р</t>
+  </si>
+  <si>
+    <t>Honor 7A,Y5 Prime 2018 ,Honor 9s ,   Huawei Y5p  замена тачскрин под ключ  -  1400р</t>
+  </si>
+  <si>
+    <t>Honor 7A,Y5 Prime 2018 ,Honor 9s ,   Huawei Y5p  замена тачскрин - 1100р</t>
+  </si>
+  <si>
+    <t>Honor 8  замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>Honor 8  замена стекла   под ключ    1400р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 8 Pro замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 8c  замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 8c  замена стекла    под ключ    1700р</t>
+  </si>
+  <si>
+    <t>Honor 8 Lite (PRA-TL10), P8 Lite 2017 замена тачскрин: 1100</t>
+  </si>
+  <si>
+    <t>Honor 8 Lite (PRA-TL10), P8 Lite 2017 замена тачскрин под ключ    1400р</t>
+  </si>
+  <si>
+    <t>Honor 8A, 8A Pro, 8A Prime замена тачскрин 1200р</t>
   </si>
   <si>
     <t>Honor 8A,Honor 8A Pro, Honor 8A Prime</t>
   </si>
   <si>
+    <t>Honor 8A, 8A Pro, 8A Prime замена тачскрин под ключ  - 1500р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 9 (STF-L09) замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 9 (STF-L09) замена стекла   под ключ    1500р</t>
+  </si>
+  <si>
+    <t>Honor 9a,Huawei Honor Y6p замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>Honor 9 Lite (LLD-L31) замена тачскрин: 1100р</t>
+  </si>
+  <si>
+    <t>Honor 9 Lite (LLD-L31) замена тачскрин под ключ  : 1400р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 9, Honor 9a, Huawei Y6p, Honor 9 Lite</t>
+  </si>
+  <si>
+    <t>Honor 9a,Huawei Honor Y6p замена стекла   под ключ  - 1500р</t>
+  </si>
+  <si>
+    <t>Honor 10 Lite (HRY-LX1) Honor 10i (HRY-LX1T) Honor 20i (HRY-TL00T) замена стекла   1100р</t>
+  </si>
+  <si>
     <t>Honor 10 Lite, Honor 10i, Honor 20i , Honor 10X Lite,  P Smart 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">Honor 10X Lite (DNN-LX9),P Smart 2021(PPA-LX1) замена стекла   под ключ  -  1500р </t>
+  </si>
+  <si>
+    <t>Honor 10 Lite (HRY-LX1) Honor 10i (HRY-LX1T) Honor 20i (HRY-TL00T) замена стекла под ключ  - 1400р</t>
+  </si>
+  <si>
+    <t>Honor 10X Lite (DNN-LX9), P Smart 2021(PPA-LX1) замена стекла  - 1200р</t>
+  </si>
+  <si>
+    <t>Honor 20 lite (MAR-LX1H) замена стекла   1500р</t>
+  </si>
+  <si>
+    <t>Honor 20 lite (MAR-LX1H) замена стекла  под ключ    2000р</t>
+  </si>
+  <si>
+    <t>Honor 20 , Honor 20 Pro , Nova 5T замена стекла   1500р</t>
+  </si>
+  <si>
     <t>Honor 20 lite, Honor 20 , Honor 20 Pro , Huawei Nova 5T</t>
   </si>
   <si>
-    <t>Huawei Mate 10, Huawei Mate 10 Pro, Huawei Mate 10 Lite, Huawei  Nova 2i, Huawei Mate 20, Huawei Mate 20 Lite</t>
-  </si>
-  <si>
-    <t>Huawei Nova</t>
+    <t>Honor 20 , Honor 20 Pro , Nova 5T замена стекла  под ключ  - 2000р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10  замена стекла   1700р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10  замена стекла  под ключ    2200р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10 Pro замена стекла    1700р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10 Pro замена стекла   под ключ    2200р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10 Lite / Nova 2i замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 20  замена стекла   под ключ    2000р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 20 Lite замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>Huawei Nova (CAN-L11) замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>Huawei Nova (CAN-L11) замена стекла   под ключ  - 1300р</t>
+  </si>
+  <si>
+    <t>Huawei Nova 2 (PIC-LX9) замена стекла   1100р</t>
+  </si>
+  <si>
+    <t>Huawei Nova 2 (PIC-LX9) замена стекла   под ключ     1400р</t>
+  </si>
+  <si>
+    <t>Huawei Nova 2 Plus (ВАС-L21) замена стекла    1100р</t>
   </si>
   <si>
     <t xml:space="preserve">Huawei Nova 2, Huawei Nova 2 Plus </t>
   </si>
   <si>
+    <t>Huawei Nova 2 Plus (ВАС-L21) замена стекла  под ключ  -  1400р</t>
+  </si>
+  <si>
+    <t>Huawei Nova 3 (PAR-LX1), Nova 3i (INE-LX1)  замена стекла   1200р</t>
+  </si>
+  <si>
     <t>Huawei Nova 3</t>
   </si>
   <si>
+    <t>Huawei Nova 3 (PAR-LX1), Nova 3i (INE-LX1)  замена стекла   под ключ - 1500р</t>
+  </si>
+  <si>
+    <t>Huawei P9 Lite (VNS-L21) замена стекла   1000р</t>
+  </si>
+  <si>
     <t>Huawei P9 Lite</t>
   </si>
   <si>
+    <t>Huawei P9 Lite (VNS-L21) замена стекла   под ключ  - 1500р</t>
+  </si>
+  <si>
+    <t>Huawei P10 Lite (WAS-LX1) замена стекла   1100р</t>
+  </si>
+  <si>
     <t>Huawei P10 Lite</t>
   </si>
   <si>
-    <t>Huawei P30, Huawei P30 lite, Honor 20s</t>
+    <t>Huawei P10 Lite (WAS-LX1) замена стекла   под ключ - 1600р</t>
+  </si>
+  <si>
+    <t>Huawei P30 (ELE-L29) замена стекла   2500р</t>
+  </si>
+  <si>
+    <t>Huawei P30 (ELE-L29) замена стекла   под ключ    3000р</t>
+  </si>
+  <si>
+    <t>Huawei P30 lite / Honor 20s замена стекла   1500р</t>
+  </si>
+  <si>
+    <t>Huawei P30 lite / Honor 20s замена стекла   под ключ    2000р</t>
+  </si>
+  <si>
+    <t>Huawei P40 Lite (JNY-LX1), Nova 6 SE (JNY-TL10) замена стекла   1500р</t>
+  </si>
+  <si>
+    <t>Huawei P40 Lite (JNY-LX1), Nova 6 SE (JNY-TL10) замена стекла   под ключ - 2000р</t>
+  </si>
+  <si>
+    <t>Huawei P40 Lite E ,Honor 9C ,Huawei Y7p  замена стекла   под ключ - 2000р</t>
+  </si>
+  <si>
+    <t>Huawei P40 Lite E ,Honor 9C ,Huawei Y7p  замена стекла  - 1500р</t>
   </si>
   <si>
     <t>Huawei P40 Lite E, Honor 9C ,Huawei Y7p, Huawei P40 Lite,Huawei  Nova 6 SE</t>
   </si>
   <si>
+    <t>Huawei P Smart Z (STK-LX1) Honor 9X замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>Huawei P Smart 2019 (POT-LX1)  замена стекла   1200р</t>
+  </si>
+  <si>
+    <t>Huawei P Smart (FIG-LX1)  замена тачскрин 1000р</t>
+  </si>
+  <si>
+    <t>Huawei P Smart Z (STK-LX1) Honor 9X замена стекла   под ключ  - 1500р</t>
+  </si>
+  <si>
+    <t>Huawei P Smart 2019 (POT-LX1)  замена стекла  под ключ  -  1500р</t>
+  </si>
+  <si>
+    <t>Huawei P Smart (FIG-LX1)  замена тачскрин под ключ   -  1300р</t>
+  </si>
+  <si>
+    <t>Huawei Y6 2019,Y6 Prime 2019, Y6 Pro 2019,Y6s замена тачскрин 1200р</t>
+  </si>
+  <si>
+    <t>Huawei Y6 2019,Y6 Prime 2019, Y6 Pro 2019,Y6s замена тачскрин под ключ  - 1500р</t>
+  </si>
+  <si>
     <t>Huawei Y6 2019,Huawei Y6 Prime 2019, Huawei  Y6 Pro 2019,Y6s</t>
   </si>
   <si>
-    <t>Honor 7A,Y5 Prime 2018 ,Honor 9s ,   Huawei Y5p  замена тачскрин - 1100р</t>
-  </si>
-  <si>
-    <t>Honor 8  замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Honor 8A, 8A Pro, 8A Prime замена тачскрин 1200р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 9 (STF-L09) замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Honor 10 Lite (HRY-LX1) Honor 10i (HRY-LX1T) Honor 20i (HRY-TL00T) замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Honor 20 lite (MAR-LX1H) замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 10  замена стекла   1700р</t>
-  </si>
-  <si>
-    <t>Huawei Nova (CAN-L11) замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Huawei Nova 2 (PIC-LX9) замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Huawei Nova 3 (PAR-LX1), Nova 3i (INE-LX1)  замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>Huawei P9 Lite (VNS-L21) замена стекла   1000р</t>
-  </si>
-  <si>
-    <t>Huawei P10 Lite (WAS-LX1) замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Huawei P30 (ELE-L29) замена стекла   2500р</t>
-  </si>
-  <si>
-    <t>Huawei P40 Lite E ,Honor 9C ,Huawei Y7p  замена стекла  - 1500р</t>
-  </si>
-  <si>
-    <t>Huawei P Smart Z (STK-LX1) Honor 9X замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>Huawei Y6 2019,Y6 Prime 2019, Y6 Pro 2019,Y6s замена тачскрин 1200р</t>
-  </si>
-  <si>
-    <t>Honor 7A,Y5 Prime 2018 ,Honor 9s ,   Huawei Y5p  замена тачскрин под ключ  -  1400р</t>
-  </si>
-  <si>
-    <t>Honor 8  замена стекла   под ключ    1400р</t>
-  </si>
-  <si>
-    <t>Honor 8A, 8A Pro, 8A Prime замена тачскрин под ключ  - 1500р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 9 (STF-L09) замена стекла   под ключ    1500р</t>
-  </si>
-  <si>
-    <t>Honor 10 Lite (HRY-LX1) Honor 10i (HRY-LX1T) Honor 20i (HRY-TL00T) замена стекла под ключ  - 1400р</t>
-  </si>
-  <si>
-    <t>Honor 20 lite (MAR-LX1H) замена стекла  под ключ    2000р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 10  замена стекла  под ключ    2200р</t>
-  </si>
-  <si>
-    <t>Huawei Nova (CAN-L11) замена стекла   под ключ  - 1300р</t>
-  </si>
-  <si>
-    <t>Huawei Nova 2 (PIC-LX9) замена стекла   под ключ     1400р</t>
-  </si>
-  <si>
-    <t>Huawei Nova 3 (PAR-LX1), Nova 3i (INE-LX1)  замена стекла   под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>Huawei P9 Lite (VNS-L21) замена стекла   под ключ  - 1500р</t>
-  </si>
-  <si>
-    <t>Huawei P10 Lite (WAS-LX1) замена стекла   под ключ - 1600р</t>
-  </si>
-  <si>
-    <t>Huawei P30 (ELE-L29) замена стекла   под ключ    3000р</t>
-  </si>
-  <si>
-    <t>Huawei P40 Lite E ,Honor 9C ,Huawei Y7p  замена стекла   под ключ - 2000р</t>
-  </si>
-  <si>
-    <t>Huawei P Smart Z (STK-LX1) Honor 9X замена стекла   под ключ  - 1500р</t>
-  </si>
-  <si>
-    <t>Huawei Y6 2019,Y6 Prime 2019, Y6 Pro 2019,Y6s замена тачскрин под ключ  - 1500р</t>
-  </si>
-  <si>
-    <t>Замена разъема type-c под ключ  800 - 1000р</t>
-  </si>
-  <si>
-    <t>Honor 7A Pro, 7C , Y6 Prime 2018 замена тачскрин 1100р</t>
-  </si>
-  <si>
-    <t>Honor 8 Lite (PRA-TL10), P8 Lite 2017 замена тачскрин: 1100</t>
-  </si>
-  <si>
-    <t>Honor 9a,Huawei Honor Y6p замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Honor 10X Lite (DNN-LX9), P Smart 2021(PPA-LX1) замена стекла  - 1200р</t>
-  </si>
-  <si>
-    <t>Honor 20 , Honor 20 Pro , Nova 5T замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 10 Pro замена стекла    1700р</t>
-  </si>
-  <si>
-    <t>Huawei Nova 2 Plus (ВАС-L21) замена стекла    1100р</t>
-  </si>
-  <si>
-    <t>Huawei P30 lite / Honor 20s замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>Huawei P40 Lite (JNY-LX1), Nova 6 SE (JNY-TL10) замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>Huawei P Smart 2019 (POT-LX1)  замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>Honor 7A Pro, 7C , Y6 Prime 2018 замена тачскрин под ключ    1400р</t>
-  </si>
-  <si>
-    <t>Honor 8 Lite (PRA-TL10), P8 Lite 2017 замена тачскрин под ключ    1400р</t>
-  </si>
-  <si>
-    <t>Honor 9a,Huawei Honor Y6p замена стекла   под ключ  - 1500р</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honor 10X Lite (DNN-LX9),P Smart 2021(PPA-LX1) замена стекла   под ключ  -  1500р </t>
-  </si>
-  <si>
-    <t>Honor 20 , Honor 20 Pro , Nova 5T замена стекла  под ключ  - 2000р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 10 Pro замена стекла   под ключ    2200р</t>
-  </si>
-  <si>
-    <t>Huawei Nova 2 Plus (ВАС-L21) замена стекла  под ключ  -  1400р</t>
-  </si>
-  <si>
-    <t>Huawei P30 lite / Honor 20s замена стекла   под ключ    2000р</t>
-  </si>
-  <si>
-    <t>Huawei P40 Lite (JNY-LX1), Nova 6 SE (JNY-TL10) замена стекла   под ключ - 2000р</t>
-  </si>
-  <si>
-    <t>Huawei P Smart 2019 (POT-LX1)  замена стекла  под ключ  -  1500р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 8 Pro замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>Honor 9 Lite (LLD-L31) замена тачскрин: 1100р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 10 Lite / Nova 2i замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>Huawei P Smart (FIG-LX1)  замена тачскрин 1000р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 8 Pro замена стекла  под ключ    1700р</t>
-  </si>
-  <si>
-    <t>Honor 9 Lite (LLD-L31) замена тачскрин под ключ  : 1400р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 10 Lite / Nova 2i замена стекла   под ключ    1500р</t>
-  </si>
-  <si>
-    <t>Huawei P Smart (FIG-LX1)  замена тачскрин под ключ   -  1300р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 8c  замена стекла   1200р</t>
-  </si>
-  <si>
-    <t>c  замена стекла   1500р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 8c  замена стекла    под ключ    1700р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 20  замена стекла   под ключ    2000р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 8x (JSN-L21) Honor 9X Lite замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 20 Lite замена стекла   1100р</t>
-  </si>
-  <si>
-    <t>Huawei Honor 8x (JSN-L21) Honor 9X Lite замена стекла  под ключ    1500р</t>
-  </si>
-  <si>
-    <t>Huawei Mate 20 Lite замена стекла   под ключ    1500р</t>
+    <t>Xiaomi Mi 6 Mi 6c замена стекла    1500р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 6 Mi 6c замена стекла   под ключ  - 2000р</t>
   </si>
   <si>
     <t>Xiaomi Mi 6, Xiaomi Mi 6c</t>
   </si>
   <si>
-    <t xml:space="preserve">Xiaomi Mi 8, Xiaomi Mi 8 Pro, Xiaomi Mi 8 SE, Xiaomi Mi 8 lite </t>
+    <t>Xiaomi Mi 8,Mi 8 Pro, Mi 8 SE замена стекла    1500р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8 lite замена стекла    1100р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8 lite замена стекла    под ключ    1500р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8,Mi 8 Pro, Mi 8 SE замена стекла    под ключ - 2000р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9,  Xiaomi Mi 9 SE  замена стекла    2000р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9 Lite, Mi A3 Lite, Mi CC9 замена стекла    1500р</t>
   </si>
   <si>
     <t>Xiaomi Mi 9,  Xiaomi Mi 9 SE, Xiaomi Mi 9 Lite,Xiaomi Mi A3 Lite, Xiaomi Mi CC9, Xiaomi Mi 9T, Xiaomi Mi 9T Pro, Xiaomi K20, Xiaomi K20 Pro</t>
   </si>
   <si>
+    <t>Xiaomi Mi 9,  Xiaomi Mi 9 SE  замена стекла    под ключ  -  2500р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9 Lite, Mi A3 Lite, Mi CC9 замена стекла    под ключ -  2000р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9T, Mi 9T Pro, K20, K20 Pro замена стекла    под ключ  - 2500р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 9T, Mi 9T Pro, K20, K20 Pro замена стекла  - 2000р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi A1 (Mi 5X)  (MDG2) замена тачскрин   1100р</t>
+  </si>
+  <si>
     <t>Xiaomi Mi A1</t>
   </si>
   <si>
+    <t>Xiaomi Mi A1 (Mi 5X)  (MDG2) замена тачскрин   под ключ - 1500р</t>
+  </si>
+  <si>
     <t>Xiaomi Mi A2, Xiaomi Mi 6x</t>
   </si>
   <si>
+    <t>Xiaomi Mi A2, Mi 6x замена стекла  под ключ  -  1500р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi A2, Mi 6x замена стекла - 1100р</t>
+  </si>
+  <si>
+    <t>Mi A2 lite (redmi 6 Pro) замена тачскрин   1000р</t>
+  </si>
+  <si>
     <t>Xiaomi Mi A2 lite, Xiaomi Redmi 6 Pro</t>
   </si>
   <si>
+    <t>Mi A2 lite (redmi 6 Pro) замена тачскрин   под ключ - 1300р</t>
+  </si>
+  <si>
     <t>Xiaomi Mi A3, Xiaomi Mi CC9e</t>
   </si>
   <si>
+    <t>Xiaomi Mi A3 / Xiaomi Mi CC9e замена стекла    1500р</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi A3 /  XiaomiMi CC9e замена стекла    под ключ - 2000р</t>
+  </si>
+  <si>
+    <t>Xiaomi Pocophone F1 замена стекла    1000р</t>
+  </si>
+  <si>
+    <t>Xiaomi Pocophone F1 замена стекла    под ключ  - 1300р</t>
+  </si>
+  <si>
     <t>Xiaomi Pocophone F1</t>
   </si>
   <si>
+    <t>Redmi 3, Redmi 3 pro, Redmi 3s, Redmi 3x замена тачскрин  900р</t>
+  </si>
+  <si>
+    <t>Redmi 3, Redmi 3 pro, Redmi 3s, Redmi 3x замена тачскрин под ключ -  1200р</t>
+  </si>
+  <si>
+    <t>Redmi Note 3,  Note 3 Pro, Note 3 Pro SE замена тачскрин  под ключ -  1300р</t>
+  </si>
+  <si>
+    <t>Redmi Note 3,  Note 3 Pro, Note 3 Pro SE замена тачскрин - 1000р</t>
+  </si>
+  <si>
     <t>Xiaomi Redmi 3,Xiaomi Redmi 3 pro,Xiaomi Redmi 3s,Xiaomi Redmi 3x,Redmi Note 3, Xiaomi  Note 3 Pro, Xiaomi Note 3 Pro SE</t>
   </si>
   <si>
+    <t>Redmi 4a, 4x, Note 4x замена тачскрин  1000р</t>
+  </si>
+  <si>
+    <t>Redmi 4a,4x,Note 4x замена тачскрин  под ключ - 1300р</t>
+  </si>
+  <si>
+    <t>Redmi 5, 5a, 5 plus, Note 5,Note 5a  замена стекла   под ключ - 1300р</t>
+  </si>
+  <si>
+    <t>Redmi 5, 5a, 5 plus, Note 5,Note 5a  замена стекла  - 1000р</t>
+  </si>
+  <si>
     <t>Xiaomi Redmi 4a,Xiaomi Redmi 4x, Xiaomi Note 4x</t>
   </si>
   <si>
@@ -1339,190 +1390,139 @@
     <t>Xiaomi Redmi 6, Xiaomi Redmi 6a ,Xiaomi Redmi  Note 6 pro</t>
   </si>
   <si>
+    <t>Redmi 6, 6a ,Note 6 pro замена тачскрин  под ключ  - 1300р</t>
+  </si>
+  <si>
+    <t>Redmi 6, 6a , Note 6 pro замена тачскрин -  1000р</t>
+  </si>
+  <si>
+    <t>Redmi Note 7, Note 7 pro замена стекла    1300р</t>
+  </si>
+  <si>
+    <t>Redmi Note 7, Note 7 pro замена стекла    под ключ    1500р</t>
+  </si>
+  <si>
     <t>Xiaomi Redmi 7, Xiaomi redmi 7a ,Xiaomi Redmi Note 7, Xiaomi Redmi  Note 7 pro</t>
   </si>
   <si>
-    <t xml:space="preserve">Xiaomi Redmi 8, Xiaomi Redmi 8a, Xiaomi Redmi Note 8, Xiaomi Redmi  Note 8 pro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiaomi Redmi 9, Xiaomi Redmi Note 9, Xiaomi Note9s, Xiaomi  Note 9 Pro </t>
+    <t>Redmi 7 , redmi 7a замена тачскрин   под ключ  - 1400р</t>
+  </si>
+  <si>
+    <t>Redmi 7 , redmi 7a замена тачскрин - 1100р</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 , Note 8 pro замена стекла    1300р</t>
+  </si>
+  <si>
+    <t>Redmi Note 8 , Note 8 pro замена стекла    под ключ  - 1500р</t>
+  </si>
+  <si>
+    <t>Redmi 8, Redmi 8a замена стекла  -  1100р</t>
+  </si>
+  <si>
+    <t>Redmi 8, Redmi 8a замена стекла    под ключ -  1400р</t>
+  </si>
+  <si>
+    <t>Redmi note 8t замена стекла    под ключ  -  1800р</t>
+  </si>
+  <si>
+    <t>Redmi note 8t замена стекла -  1500р</t>
+  </si>
+  <si>
+    <t>Redmi 9 замена стекла    1500р</t>
+  </si>
+  <si>
+    <t>Redmi 9 замена стекла    под ключ    1800р</t>
+  </si>
+  <si>
+    <t>Redmi Note 9, Note9s, Note 9 Pro замена стекла   под ключ  - 2300р</t>
+  </si>
+  <si>
+    <t>Redmi Note 9, Note9s, Note 9 Pro замена стекла  - 2000р</t>
   </si>
   <si>
     <t>Xiaomi Redmi 9a, Xiaom redmi 9c</t>
   </si>
   <si>
+    <t>Redmi 9a, redmi 9c замена стекла    под ключ - 1500р</t>
+  </si>
+  <si>
+    <t>Redmi 9a, redmi 9c замена стекла  - 1200р</t>
+  </si>
+  <si>
     <t>Xiaomi Redmi S2</t>
   </si>
   <si>
-    <t>Xiaomi Mi 6 Mi 6c замена стекла    1500р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 8,Mi 8 Pro, Mi 8 SE замена стекла    1500р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 9,  Xiaomi Mi 9 SE  замена стекла    2000р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi A1 (Mi 5X)  (MDG2) замена тачскрин   1100р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi A2, Mi 6x замена стекла - 1100р</t>
-  </si>
-  <si>
-    <t>Mi A2 lite (redmi 6 Pro) замена тачскрин   1000р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi A3 / Xiaomi Mi CC9e замена стекла    1500р</t>
-  </si>
-  <si>
-    <t>Xiaomi Pocophone F1 замена стекла    1000р</t>
-  </si>
-  <si>
-    <t>Redmi 3, Redmi 3 pro, Redmi 3s, Redmi 3x замена тачскрин  900р</t>
-  </si>
-  <si>
-    <t>Redmi 4a, 4x, Note 4x замена тачскрин  1000р</t>
-  </si>
-  <si>
-    <t>Redmi 5, 5a, 5 plus, Note 5,Note 5a  замена стекла  - 1000р</t>
-  </si>
-  <si>
-    <t>Redmi 6, 6a , Note 6 pro замена тачскрин -  1000р</t>
-  </si>
-  <si>
-    <t>Redmi 7 , redmi 7a замена тачскрин - 1100р</t>
-  </si>
-  <si>
-    <t>Redmi 8, Redmi 8a замена стекла  -  1100р</t>
-  </si>
-  <si>
-    <t>Redmi 9 замена стекла    1500р</t>
-  </si>
-  <si>
-    <t>Redmi 9a, redmi 9c замена стекла  - 1200р</t>
+    <t>Redmi S2 замена тачскрин  под ключ - 1400р</t>
   </si>
   <si>
     <t>Redmi S2 замена тачскрин - 1100р</t>
   </si>
   <si>
-    <t>Xiaomi Mi 6 Mi 6c замена стекла   под ключ  - 2000р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 8,Mi 8 Pro, Mi 8 SE замена стекла    под ключ - 2000р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 9,  Xiaomi Mi 9 SE  замена стекла    под ключ  -  2500р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi A1 (Mi 5X)  (MDG2) замена тачскрин   под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi A2, Mi 6x замена стекла  под ключ  -  1500р</t>
-  </si>
-  <si>
-    <t>Mi A2 lite (redmi 6 Pro) замена тачскрин   под ключ - 1300р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi A3 /  XiaomiMi CC9e замена стекла    под ключ - 2000р</t>
-  </si>
-  <si>
-    <t>Xiaomi Pocophone F1 замена стекла    под ключ  - 1300р</t>
-  </si>
-  <si>
-    <t>Redmi 3, Redmi 3 pro, Redmi 3s, Redmi 3x замена тачскрин под ключ -  1200р</t>
-  </si>
-  <si>
-    <t>Redmi 4a,4x,Note 4x замена тачскрин  под ключ - 1300р</t>
-  </si>
-  <si>
-    <t>Redmi 5, 5a, 5 plus, Note 5,Note 5a  замена стекла   под ключ - 1300р</t>
-  </si>
-  <si>
-    <t>Redmi 6, 6a ,Note 6 pro замена тачскрин  под ключ  - 1300р</t>
-  </si>
-  <si>
-    <t>Redmi 7 , redmi 7a замена тачскрин   под ключ  - 1400р</t>
-  </si>
-  <si>
-    <t>Redmi 8, Redmi 8a замена стекла    под ключ -  1400р</t>
-  </si>
-  <si>
-    <t>Redmi 9 замена стекла    под ключ    1800р</t>
-  </si>
-  <si>
-    <t>Redmi 9a, redmi 9c замена стекла    под ключ - 1500р</t>
-  </si>
-  <si>
-    <t>Redmi S2 замена тачскрин  под ключ - 1400р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 8 lite замена стекла    1100р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 9 Lite, Mi A3 Lite, Mi CC9 замена стекла    1500р</t>
-  </si>
-  <si>
-    <t>Redmi Note 3,  Note 3 Pro, Note 3 Pro SE замена тачскрин - 1000р</t>
-  </si>
-  <si>
-    <t>Redmi Note 7, Note 7 pro замена стекла    1300р</t>
-  </si>
-  <si>
-    <t>Redmi Note 8 , Note 8 pro замена стекла    1300р</t>
-  </si>
-  <si>
-    <t>Redmi Note 9, Note9s, Note 9 Pro замена стекла  - 2000р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 8 lite замена стекла    под ключ    1500р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 9 Lite, Mi A3 Lite, Mi CC9 замена стекла    под ключ -  2000р</t>
-  </si>
-  <si>
-    <t>Redmi Note 3,  Note 3 Pro, Note 3 Pro SE замена тачскрин  под ключ -  1300р</t>
-  </si>
-  <si>
-    <t>Redmi Note 7, Note 7 pro замена стекла    под ключ    1500р</t>
-  </si>
-  <si>
-    <t>Redmi Note 8 , Note 8 pro замена стекла    под ключ  - 1500р</t>
-  </si>
-  <si>
-    <t>Redmi Note 9, Note9s, Note 9 Pro замена стекла   под ключ  - 2300р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 9T, Mi 9T Pro, K20, K20 Pro замена стекла  - 2000р</t>
-  </si>
-  <si>
-    <t>Redmi note 8t замена стекла -  1500р</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 9T, Mi 9T Pro, K20, K20 Pro замена стекла    под ключ  - 2500р</t>
-  </si>
-  <si>
-    <t>Redmi note 8t замена стекла    под ключ  -  1800р</t>
-  </si>
-  <si>
-    <t>iPhone 5/5с/5S/SE</t>
+    <t>Honor 7A Pro, Honor 7C , Huawei Y6 Prime 2018</t>
+  </si>
+  <si>
+    <t>Honor 7A Pro, 7C , Y6 Prime 2018 замена тачскрин под ключ - 1400р</t>
+  </si>
+  <si>
+    <t>Honor 7A Pro, 7C , Y6 Prime 2018 замена тачскрин - 1100р</t>
+  </si>
+  <si>
+    <t>Honor 8, Honor 8 Lite, Huawei P8 Lite 2017</t>
+  </si>
+  <si>
+    <t>Honor 8 Pro, Honor 8c, Honor 8x</t>
+  </si>
+  <si>
+    <t>Huawei Honor 8x (JSN-L21) Honor 9X Lite замена стекла  под ключ - 1500р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 8x (JSN-L21) Honor 9X Lite замена стекла -  1100р</t>
+  </si>
+  <si>
+    <t>Huawei Honor 8 Pro замена стекла  под ключ -   1700р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10, Huawei Mate 10 Pro</t>
+  </si>
+  <si>
+    <t>Huawei Mate 20  замена стекла   1500р</t>
+  </si>
+  <si>
+    <t>Huawei Nova,Huawei Mate 10 Lite, Nova 2i,Mate 20,Mate 20 Lite</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10 Lite / Nova 2i замена стекла   под ключ  - 1500р</t>
+  </si>
+  <si>
+    <t>Huawei Mate 20 Lite замена стекла   под ключ  - 1500р</t>
+  </si>
+  <si>
+    <t>Honor 7A, Huawei Y5 Prime 2018 ,Honor 9s ,Huawei Y5p</t>
   </si>
   <si>
     <t>iPhone 6s plus</t>
   </si>
   <si>
-    <t>iPhone 8 plus</t>
-  </si>
-  <si>
-    <t>Honor 7A, Huawei Y5 Prime 2018 ,Honor 9s ,Huawei Y5p, Honor 7A Pro, Honor 7C , Huawei Y6 Prime 2018</t>
-  </si>
-  <si>
-    <t>Honor 8, Honor 8 Lite, Huawei P8 Lite 2017, Honor 8 Pro, Honor 8C, Honor 8X</t>
-  </si>
-  <si>
-    <t>Huawei Honor 9, Honor 9A, Huawei Y6p, Honor 9 Lite</t>
+    <t>Huawei P30, Huawei P30 Lite, Honor 20s</t>
   </si>
   <si>
     <t>Huawei P Smart Z,  Honor 9X, Huawei P Smart 2019, Huawei P Smart</t>
+  </si>
+  <si>
+    <t>SAMSUNG J4 ,SAMSUNG J4 Plus, SAMSUNG J6 Plus</t>
+  </si>
+  <si>
+    <t>Xiaomi Mi 8, Xiaomi Mi 8 Pro, Xiaomi Mi 8 SE, Xiaomi Mi 8 lite</t>
+  </si>
+  <si>
+    <t>SAMSUNG J6 2018</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 8, Xiaomi Redmi 8a, Xiaomi Redmi Note 8, Xiaomi Redmi  Note 8 pro</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9, Xiaomi Redmi Note 9, Xiaomi Note9s, Xiaomi  Note 9 Pro</t>
   </si>
 </sst>
 </file>
@@ -1890,11 +1890,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB365745-1918-D843-99E6-D912BC524707}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="103.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="105.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1905,7 +1905,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>488</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>37</v>
@@ -1929,34 +1929,34 @@
         <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>490</v>
+        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1985,34 +1985,34 @@
         <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -2044,31 +2044,31 @@
         <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -2097,34 +2097,34 @@
         <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -2153,34 +2153,34 @@
         <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -2212,31 +2212,31 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -2268,31 +2268,31 @@
         <v>84</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2345,10 +2345,10 @@
         <v>4</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -2380,31 +2380,31 @@
         <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -2439,10 +2439,10 @@
         <v>82</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>86</v>
@@ -2457,10 +2457,10 @@
         <v>86</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -2492,31 +2492,31 @@
         <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -2548,13 +2548,13 @@
         <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>82</v>
@@ -2566,13 +2566,13 @@
         <v>82</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2604,31 +2604,31 @@
         <v>88</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2678,13 +2678,13 @@
         <v>82</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2716,31 +2716,31 @@
         <v>89</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
         <v>82</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -2825,28 +2825,28 @@
         <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -2899,7 +2899,7 @@
         <v>86</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -2931,28 +2931,28 @@
         <v>91</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -2984,28 +2984,28 @@
         <v>86</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -3037,28 +3037,28 @@
         <v>92</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -3111,7 +3111,7 @@
         <v>82</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -3143,28 +3143,28 @@
         <v>79</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -3196,28 +3196,28 @@
         <v>80</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>82</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -3249,28 +3249,28 @@
         <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -3302,25 +3302,25 @@
         <v>93</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -3352,25 +3352,25 @@
         <v>94</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -3402,25 +3402,25 @@
         <v>63</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -3502,25 +3502,25 @@
         <v>65</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -3552,25 +3552,25 @@
         <v>66</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -3602,13 +3602,13 @@
         <v>67</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>63</v>
@@ -3649,13 +3649,13 @@
         <v>68</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>64</v>
@@ -3696,25 +3696,25 @@
         <v>69</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
@@ -3731,25 +3731,25 @@
         <v>70</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
@@ -3766,25 +3766,25 @@
         <v>71</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
@@ -3798,25 +3798,25 @@
         <v>72</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
@@ -3830,25 +3830,25 @@
         <v>73</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
@@ -3856,25 +3856,25 @@
         <v>72</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
@@ -3882,59 +3882,59 @@
         <v>73</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J42" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>73</v>
@@ -3951,88 +3951,94 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D36843-EB55-4D40-808D-3E7538EDA15D}">
-  <dimension ref="A1:BT41"/>
+  <dimension ref="A1:BT33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="3" max="4" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="85.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57" customWidth="1"/>
+    <col min="7" max="7" width="45.33203125" customWidth="1"/>
+    <col min="8" max="8" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.33203125" customWidth="1"/>
+    <col min="10" max="10" width="66.1640625" customWidth="1"/>
+    <col min="11" max="11" width="50.1640625" customWidth="1"/>
+    <col min="12" max="12" width="49.6640625" customWidth="1"/>
+    <col min="13" max="13" width="53" customWidth="1"/>
+    <col min="14" max="14" width="72" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.6640625" customWidth="1"/>
+    <col min="16" max="16" width="71" customWidth="1"/>
+    <col min="17" max="17" width="57.6640625" customWidth="1"/>
+    <col min="18" max="18" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+        <v>410</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -4090,1957 +4096,1968 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
         <v>353</v>
       </c>
-      <c r="C2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" t="s">
-        <v>355</v>
-      </c>
       <c r="E2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="I2" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="J2" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="K2" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="L2" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="M2" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="N2" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="O2" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="P2" t="s">
-        <v>367</v>
+        <v>408</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>477</v>
+      </c>
+      <c r="R2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G3" t="s">
         <v>371</v>
       </c>
-      <c r="E3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" t="s">
-        <v>374</v>
-      </c>
       <c r="H3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J3" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K3" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="L3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="M3" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="N3" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="O3" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="P3" t="s">
-        <v>383</v>
+        <v>409</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>476</v>
+      </c>
+      <c r="R3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="K4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="L4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="M4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="N4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="P4" t="s">
-        <v>297</v>
+        <v>219</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="J5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="M5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="N5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="O5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="P5" t="s">
-        <v>298</v>
+        <v>220</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="N6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="O6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="P6" t="s">
-        <v>300</v>
+        <v>336</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>336</v>
+      </c>
+      <c r="R6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="L7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="M7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="N7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="O7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="P7" t="s">
-        <v>301</v>
+        <v>221</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="L8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="N8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="O8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="P8" t="s">
-        <v>302</v>
+        <v>229</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="G9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="H9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="I9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="J9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="K9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="L9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="M9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="N9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="O9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="P9" t="s">
-        <v>384</v>
+        <v>340</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>340</v>
+      </c>
+      <c r="R9" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>385</v>
-      </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
+        <v>372</v>
+      </c>
+      <c r="H10" t="s">
+        <v>374</v>
       </c>
       <c r="I10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="O10" t="s">
-        <v>394</v>
+        <v>403</v>
+      </c>
+      <c r="R10" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>395</v>
-      </c>
       <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" t="s">
+        <v>373</v>
+      </c>
+      <c r="H11" t="s">
+        <v>486</v>
+      </c>
+      <c r="I11" t="s">
+        <v>383</v>
+      </c>
+      <c r="M11" t="s">
         <v>396</v>
       </c>
-      <c r="D11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="N11" t="s">
         <v>398</v>
       </c>
-      <c r="F11" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" t="s">
-        <v>400</v>
-      </c>
-      <c r="I11" t="s">
-        <v>401</v>
-      </c>
-      <c r="M11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N11" t="s">
-        <v>403</v>
-      </c>
       <c r="O11" t="s">
+        <v>406</v>
+      </c>
+      <c r="R11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" t="s">
+        <v>219</v>
+      </c>
+      <c r="N12" t="s">
+        <v>219</v>
+      </c>
+      <c r="O12" t="s">
+        <v>219</v>
+      </c>
+      <c r="R12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" t="s">
+        <v>220</v>
+      </c>
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="R13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" t="s">
+        <v>336</v>
+      </c>
+      <c r="M14" t="s">
+        <v>336</v>
+      </c>
+      <c r="N14" t="s">
+        <v>336</v>
+      </c>
+      <c r="O14" t="s">
+        <v>336</v>
+      </c>
+      <c r="R14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15" t="s">
+        <v>221</v>
+      </c>
+      <c r="R15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" t="s">
+        <v>229</v>
+      </c>
+      <c r="M16" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" t="s">
+        <v>229</v>
+      </c>
+      <c r="R16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" t="s">
+        <v>340</v>
+      </c>
+      <c r="I17" t="s">
+        <v>340</v>
+      </c>
+      <c r="M17" t="s">
+        <v>340</v>
+      </c>
+      <c r="N17" t="s">
+        <v>340</v>
+      </c>
+      <c r="O17" t="s">
+        <v>340</v>
+      </c>
+      <c r="R17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>356</v>
+      </c>
+      <c r="H18" t="s">
+        <v>484</v>
+      </c>
+      <c r="O18" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" t="s">
-        <v>297</v>
-      </c>
-      <c r="F12" t="s">
-        <v>297</v>
-      </c>
-      <c r="G12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I12" t="s">
-        <v>297</v>
-      </c>
-      <c r="M12" t="s">
-        <v>297</v>
-      </c>
-      <c r="N12" t="s">
-        <v>297</v>
-      </c>
-      <c r="O12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" t="s">
-        <v>298</v>
-      </c>
-      <c r="I13" t="s">
-        <v>298</v>
-      </c>
-      <c r="M13" t="s">
-        <v>298</v>
-      </c>
-      <c r="N13" t="s">
-        <v>298</v>
-      </c>
-      <c r="O13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" t="s">
-        <v>300</v>
-      </c>
-      <c r="I14" t="s">
-        <v>300</v>
-      </c>
-      <c r="M14" t="s">
-        <v>300</v>
-      </c>
-      <c r="N14" t="s">
-        <v>300</v>
-      </c>
-      <c r="O14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I15" t="s">
-        <v>301</v>
-      </c>
-      <c r="M15" t="s">
-        <v>301</v>
-      </c>
-      <c r="N15" t="s">
-        <v>301</v>
-      </c>
-      <c r="O15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" t="s">
-        <v>302</v>
-      </c>
-      <c r="F16" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" t="s">
-        <v>302</v>
-      </c>
-      <c r="I16" t="s">
-        <v>302</v>
-      </c>
-      <c r="M16" t="s">
-        <v>302</v>
-      </c>
-      <c r="N16" t="s">
-        <v>302</v>
-      </c>
-      <c r="O16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D17" t="s">
-        <v>384</v>
-      </c>
-      <c r="E17" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G17" t="s">
-        <v>384</v>
-      </c>
-      <c r="I17" t="s">
-        <v>384</v>
-      </c>
-      <c r="M17" t="s">
-        <v>384</v>
-      </c>
-      <c r="N17" t="s">
-        <v>384</v>
-      </c>
-      <c r="O17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>405</v>
-      </c>
-      <c r="D18" t="s">
-        <v>406</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="R18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" t="s">
+        <v>375</v>
+      </c>
+      <c r="O19" t="s">
         <v>407</v>
       </c>
-      <c r="O18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>409</v>
-      </c>
-      <c r="D19" t="s">
-        <v>410</v>
-      </c>
-      <c r="G19" t="s">
-        <v>411</v>
-      </c>
-      <c r="O19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>297</v>
-      </c>
+      <c r="R19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>297</v>
-      </c>
-      <c r="G20" t="s">
-        <v>297</v>
+        <v>219</v>
+      </c>
+      <c r="H20" t="s">
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>298</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="R20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>298</v>
-      </c>
-      <c r="G21" t="s">
-        <v>298</v>
+        <v>220</v>
+      </c>
+      <c r="H21" t="s">
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>300</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="R21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" t="s">
-        <v>300</v>
+        <v>336</v>
+      </c>
+      <c r="H22" t="s">
+        <v>336</v>
       </c>
       <c r="O22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>301</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="R22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>301</v>
-      </c>
-      <c r="G23" t="s">
-        <v>301</v>
+        <v>221</v>
+      </c>
+      <c r="H23" t="s">
+        <v>221</v>
       </c>
       <c r="O23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>302</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="R23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>302</v>
-      </c>
-      <c r="G24" t="s">
-        <v>302</v>
+        <v>229</v>
+      </c>
+      <c r="H24" t="s">
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>384</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="R24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>384</v>
-      </c>
-      <c r="G25" t="s">
-        <v>384</v>
+        <v>340</v>
+      </c>
+      <c r="H25" t="s">
+        <v>340</v>
       </c>
       <c r="O25" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>413</v>
-      </c>
-      <c r="G26" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>415</v>
-      </c>
-      <c r="G27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>298</v>
-      </c>
-      <c r="G29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>302</v>
-      </c>
-      <c r="G32" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>384</v>
-      </c>
-      <c r="G33" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>417</v>
-      </c>
-      <c r="G34" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>419</v>
-      </c>
-      <c r="G35" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>297</v>
-      </c>
-      <c r="G36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>298</v>
-      </c>
-      <c r="G37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>300</v>
-      </c>
-      <c r="G38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>301</v>
-      </c>
-      <c r="G39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>302</v>
-      </c>
-      <c r="G40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>384</v>
-      </c>
-      <c r="G41" t="s">
-        <v>384</v>
+        <v>340</v>
+      </c>
+      <c r="R25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ED5A87-B4C2-1D4E-820E-CEF380AC49E9}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="84.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="77.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="53" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="51.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" customWidth="1"/>
+    <col min="7" max="7" width="66.1640625" customWidth="1"/>
+    <col min="8" max="8" width="57.6640625" customWidth="1"/>
+    <col min="9" max="9" width="83.1640625" customWidth="1"/>
+    <col min="10" max="10" width="56.1640625" customWidth="1"/>
+    <col min="11" max="11" width="49.1640625" customWidth="1"/>
+    <col min="12" max="12" width="80.5" customWidth="1"/>
+    <col min="13" max="13" width="53" customWidth="1"/>
+    <col min="14" max="14" width="51.6640625" customWidth="1"/>
+    <col min="15" max="15" width="46.1640625" customWidth="1"/>
+    <col min="16" max="16" width="47" customWidth="1"/>
+    <col min="17" max="17" width="60" customWidth="1"/>
+    <col min="18" max="18" width="75.83203125" customWidth="1"/>
+    <col min="19" max="19" width="51.83203125" customWidth="1"/>
+    <col min="20" max="20" width="54.33203125" customWidth="1"/>
+    <col min="21" max="21" width="50.33203125" customWidth="1"/>
+    <col min="22" max="22" width="69.1640625" customWidth="1"/>
+    <col min="23" max="23" width="49.5" customWidth="1"/>
+    <col min="24" max="24" width="48.5" customWidth="1"/>
+    <col min="25" max="25" width="49.83203125" customWidth="1"/>
+    <col min="26" max="26" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>297</v>
+      </c>
+      <c r="R2" t="s">
+        <v>300</v>
+      </c>
+      <c r="S2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" t="s">
+        <v>306</v>
+      </c>
+      <c r="U2" t="s">
+        <v>311</v>
+      </c>
+      <c r="V2" t="s">
+        <v>316</v>
+      </c>
+      <c r="W2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X2" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K2" t="s">
-        <v>253</v>
-      </c>
-      <c r="L2" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D3" t="s">
         <v>255</v>
       </c>
-      <c r="N2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O2" t="s">
-        <v>257</v>
-      </c>
-      <c r="P2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>259</v>
-      </c>
-      <c r="R2" t="s">
-        <v>260</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="E3" t="s">
         <v>261</v>
       </c>
-      <c r="T2" t="s">
-        <v>262</v>
-      </c>
-      <c r="U2" t="s">
-        <v>263</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="F3" t="s">
         <v>264</v>
       </c>
-      <c r="W2" t="s">
+      <c r="G3" t="s">
         <v>265</v>
       </c>
-      <c r="X2" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="H3" t="s">
         <v>267</v>
       </c>
-      <c r="Z2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>272</v>
       </c>
-      <c r="F3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>275</v>
-      </c>
-      <c r="I3" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" t="s">
-        <v>277</v>
       </c>
       <c r="K3" t="s">
         <v>278</v>
       </c>
       <c r="L3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O3" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="P3" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="Q3" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="R3" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="S3" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="T3" t="s">
+        <v>309</v>
+      </c>
+      <c r="U3" t="s">
+        <v>313</v>
+      </c>
+      <c r="V3" t="s">
+        <v>317</v>
+      </c>
+      <c r="W3" t="s">
+        <v>321</v>
+      </c>
+      <c r="X3" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O4" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" t="s">
+        <v>219</v>
+      </c>
+      <c r="S4" t="s">
+        <v>219</v>
+      </c>
+      <c r="T4" t="s">
+        <v>219</v>
+      </c>
+      <c r="U4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V4" t="s">
+        <v>219</v>
+      </c>
+      <c r="W4" t="s">
+        <v>219</v>
+      </c>
+      <c r="X4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R5" t="s">
+        <v>220</v>
+      </c>
+      <c r="S5" t="s">
+        <v>220</v>
+      </c>
+      <c r="T5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V5" t="s">
+        <v>220</v>
+      </c>
+      <c r="W5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M6" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R6" t="s">
+        <v>226</v>
+      </c>
+      <c r="S6" t="s">
+        <v>226</v>
+      </c>
+      <c r="T6" t="s">
+        <v>226</v>
+      </c>
+      <c r="U6" t="s">
+        <v>226</v>
+      </c>
+      <c r="V6" t="s">
+        <v>226</v>
+      </c>
+      <c r="W6" t="s">
+        <v>226</v>
+      </c>
+      <c r="X6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R7" t="s">
+        <v>221</v>
+      </c>
+      <c r="S7" t="s">
+        <v>221</v>
+      </c>
+      <c r="T7" t="s">
+        <v>221</v>
+      </c>
+      <c r="U7" t="s">
+        <v>221</v>
+      </c>
+      <c r="V7" t="s">
+        <v>221</v>
+      </c>
+      <c r="W7" t="s">
+        <v>221</v>
+      </c>
+      <c r="X7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" t="s">
+        <v>222</v>
+      </c>
+      <c r="O8" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" t="s">
+        <v>229</v>
+      </c>
+      <c r="S8" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" t="s">
+        <v>229</v>
+      </c>
+      <c r="U8" t="s">
+        <v>229</v>
+      </c>
+      <c r="V8" t="s">
+        <v>229</v>
+      </c>
+      <c r="W8" t="s">
+        <v>229</v>
+      </c>
+      <c r="X8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" t="s">
+        <v>223</v>
+      </c>
+      <c r="L9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M9" t="s">
+        <v>223</v>
+      </c>
+      <c r="N9" t="s">
+        <v>223</v>
+      </c>
+      <c r="O9" t="s">
+        <v>223</v>
+      </c>
+      <c r="P9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>230</v>
+      </c>
+      <c r="R9" t="s">
+        <v>230</v>
+      </c>
+      <c r="S9" t="s">
+        <v>230</v>
+      </c>
+      <c r="T9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W9" t="s">
+        <v>230</v>
+      </c>
+      <c r="X9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" t="s">
         <v>287</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T10" t="s">
+        <v>307</v>
+      </c>
+      <c r="U10" t="s">
+        <v>312</v>
+      </c>
+      <c r="V10" t="s">
+        <v>318</v>
+      </c>
+      <c r="W10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N11" t="s">
         <v>288</v>
       </c>
-      <c r="V3" t="s">
-        <v>289</v>
-      </c>
-      <c r="W3" t="s">
-        <v>290</v>
-      </c>
-      <c r="X3" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" t="s">
-        <v>297</v>
-      </c>
-      <c r="J4" t="s">
-        <v>297</v>
-      </c>
-      <c r="K4" t="s">
-        <v>297</v>
-      </c>
-      <c r="L4" t="s">
-        <v>297</v>
-      </c>
-      <c r="M4" t="s">
-        <v>297</v>
-      </c>
-      <c r="N4" t="s">
-        <v>297</v>
-      </c>
-      <c r="O4" t="s">
-        <v>297</v>
-      </c>
-      <c r="P4" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>297</v>
-      </c>
-      <c r="R4" t="s">
-        <v>297</v>
-      </c>
-      <c r="S4" t="s">
-        <v>297</v>
-      </c>
-      <c r="T4" t="s">
-        <v>297</v>
-      </c>
-      <c r="U4" t="s">
-        <v>297</v>
-      </c>
-      <c r="V4" t="s">
-        <v>297</v>
-      </c>
-      <c r="W4" t="s">
-        <v>297</v>
-      </c>
-      <c r="X4" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J5" t="s">
-        <v>298</v>
-      </c>
-      <c r="K5" t="s">
-        <v>298</v>
-      </c>
-      <c r="L5" t="s">
-        <v>298</v>
-      </c>
-      <c r="M5" t="s">
-        <v>298</v>
-      </c>
-      <c r="N5" t="s">
-        <v>298</v>
-      </c>
-      <c r="O5" t="s">
-        <v>298</v>
-      </c>
-      <c r="P5" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>298</v>
-      </c>
-      <c r="R5" t="s">
-        <v>298</v>
-      </c>
-      <c r="S5" t="s">
-        <v>298</v>
-      </c>
-      <c r="T5" t="s">
-        <v>298</v>
-      </c>
-      <c r="U5" t="s">
-        <v>298</v>
-      </c>
-      <c r="V5" t="s">
-        <v>298</v>
-      </c>
-      <c r="W5" t="s">
-        <v>298</v>
-      </c>
-      <c r="X5" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J6" t="s">
-        <v>299</v>
-      </c>
-      <c r="K6" t="s">
-        <v>299</v>
-      </c>
-      <c r="L6" t="s">
-        <v>299</v>
-      </c>
-      <c r="M6" t="s">
-        <v>299</v>
-      </c>
-      <c r="N6" t="s">
-        <v>299</v>
-      </c>
-      <c r="O6" t="s">
-        <v>299</v>
-      </c>
-      <c r="P6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>299</v>
-      </c>
-      <c r="R6" t="s">
-        <v>299</v>
-      </c>
-      <c r="S6" t="s">
-        <v>299</v>
-      </c>
-      <c r="T6" t="s">
-        <v>299</v>
-      </c>
-      <c r="U6" t="s">
-        <v>299</v>
-      </c>
-      <c r="V6" t="s">
-        <v>299</v>
-      </c>
-      <c r="W6" t="s">
-        <v>299</v>
-      </c>
-      <c r="X6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" t="s">
-        <v>301</v>
-      </c>
-      <c r="I7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M7" t="s">
-        <v>301</v>
-      </c>
-      <c r="N7" t="s">
-        <v>301</v>
-      </c>
-      <c r="O7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>301</v>
-      </c>
-      <c r="R7" t="s">
-        <v>301</v>
-      </c>
-      <c r="S7" t="s">
-        <v>301</v>
-      </c>
-      <c r="T7" t="s">
-        <v>301</v>
-      </c>
-      <c r="U7" t="s">
-        <v>301</v>
-      </c>
-      <c r="V7" t="s">
-        <v>301</v>
-      </c>
-      <c r="W7" t="s">
-        <v>301</v>
-      </c>
-      <c r="X7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H8" t="s">
-        <v>302</v>
-      </c>
-      <c r="I8" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" t="s">
-        <v>303</v>
-      </c>
-      <c r="K8" t="s">
-        <v>303</v>
-      </c>
-      <c r="L8" t="s">
-        <v>303</v>
-      </c>
-      <c r="M8" t="s">
-        <v>303</v>
-      </c>
-      <c r="N8" t="s">
-        <v>303</v>
-      </c>
-      <c r="O8" t="s">
-        <v>303</v>
-      </c>
-      <c r="P8" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>302</v>
-      </c>
-      <c r="R8" t="s">
-        <v>302</v>
-      </c>
-      <c r="S8" t="s">
-        <v>302</v>
-      </c>
-      <c r="T8" t="s">
-        <v>302</v>
-      </c>
-      <c r="U8" t="s">
-        <v>302</v>
-      </c>
-      <c r="V8" t="s">
-        <v>302</v>
-      </c>
-      <c r="W8" t="s">
-        <v>302</v>
-      </c>
-      <c r="X8" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" t="s">
-        <v>304</v>
-      </c>
-      <c r="I9" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" t="s">
-        <v>305</v>
-      </c>
-      <c r="K9" t="s">
-        <v>305</v>
-      </c>
-      <c r="L9" t="s">
-        <v>305</v>
-      </c>
-      <c r="M9" t="s">
-        <v>305</v>
-      </c>
-      <c r="N9" t="s">
-        <v>305</v>
-      </c>
-      <c r="O9" t="s">
-        <v>305</v>
-      </c>
-      <c r="P9" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>304</v>
-      </c>
-      <c r="R9" t="s">
-        <v>304</v>
-      </c>
-      <c r="S9" t="s">
-        <v>304</v>
-      </c>
-      <c r="T9" t="s">
-        <v>304</v>
-      </c>
-      <c r="U9" t="s">
-        <v>304</v>
-      </c>
-      <c r="V9" t="s">
-        <v>304</v>
-      </c>
-      <c r="W9" t="s">
-        <v>304</v>
-      </c>
-      <c r="X9" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" t="s">
-        <v>307</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="T11" t="s">
         <v>308</v>
       </c>
-      <c r="T10" t="s">
-        <v>309</v>
-      </c>
-      <c r="U10" t="s">
-        <v>310</v>
-      </c>
-      <c r="V10" t="s">
-        <v>311</v>
-      </c>
-      <c r="W10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="U11" t="s">
         <v>314</v>
       </c>
-      <c r="B11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="V11" t="s">
         <v>319</v>
-      </c>
-      <c r="T11" t="s">
-        <v>320</v>
-      </c>
-      <c r="U11" t="s">
-        <v>321</v>
-      </c>
-      <c r="V11" t="s">
-        <v>322</v>
       </c>
       <c r="W11" t="s">
         <v>323</v>
       </c>
       <c r="Y11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="N12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="T12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="U12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="V12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="W12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="Y12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="N13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="T13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="U13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="V13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="W13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="Y13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="N14" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="T14" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="U14" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="V14" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="W14" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="Y14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="N15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="T15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="U15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="V15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="W15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="Y15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="N16" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="T16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="U16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="V16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="W16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="Y16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="N17" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="T17" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="U17" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="V17" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="W17" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="Y17" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="W18" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Y18" t="s">
         <v>331</v>
@@ -6048,148 +6065,148 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="W19" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y19" t="s">
         <v>333</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="W20" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="Y20" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="W21" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="W22" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="Y22" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="W23" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="W24" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="W25" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6201,17 +6218,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA6AF52-7B0C-C54D-93C1-1A3CCEC11DE1}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" customWidth="1"/>
     <col min="3" max="3" width="120.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
     <col min="7" max="7" width="56.5" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" customWidth="1"/>
@@ -6222,61 +6239,61 @@
     <col min="13" max="13" width="71.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="72.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46" customWidth="1"/>
     <col min="17" max="17" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>422</v>
+        <v>493</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -6303,650 +6320,650 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" t="s">
         <v>440</v>
       </c>
-      <c r="D2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>445</v>
-      </c>
-      <c r="I2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J2" t="s">
-        <v>447</v>
       </c>
       <c r="K2" t="s">
         <v>448</v>
       </c>
       <c r="L2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="N2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="O2" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="P2" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="Q2" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K3" t="s">
+        <v>447</v>
+      </c>
+      <c r="L3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M3" t="s">
         <v>457</v>
       </c>
-      <c r="D3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>462</v>
       </c>
-      <c r="I3" t="s">
-        <v>463</v>
-      </c>
-      <c r="J3" t="s">
-        <v>464</v>
-      </c>
-      <c r="K3" t="s">
-        <v>465</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>466</v>
-      </c>
-      <c r="M3" t="s">
-        <v>467</v>
-      </c>
-      <c r="N3" t="s">
-        <v>468</v>
-      </c>
-      <c r="O3" t="s">
-        <v>469</v>
       </c>
       <c r="P3" t="s">
         <v>470</v>
       </c>
       <c r="Q3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="K4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="L4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="M4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="N4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="P4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="Q4" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="J5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="M5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="N5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="O5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="P5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="Q5" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="N6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="O6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="P6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="Q6" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="L7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="M7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="N7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="O7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="P7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="Q7" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="L8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="N8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="O8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="P8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="Q8" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="G9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="H9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="I9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="J9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="K9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="L9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="M9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="N9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="O9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="P9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="Q9" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="M10" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="N10" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="O10" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>478</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="I11" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="M11" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="N11" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="O11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="I12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="M12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="N12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="O12" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="I13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="M13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="N13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="O13" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="I14" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M14" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="N14" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="O14" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="I15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="M15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="N15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="O15" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="I16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="M16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="N16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="O16" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="I17" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="M17" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="N17" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="O17" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="N18" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
       <c r="N19" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="N20" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="N22" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="N25" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
